--- a/pytest/data/cases.xlsx
+++ b/pytest/data/cases.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" r:id="rId3"/>
     <sheet name="add" sheetId="4" r:id="rId4"/>
-    <sheet name="invest" sheetId="5" r:id="rId5"/>
+    <sheet name="audit" sheetId="5" r:id="rId5"/>
+    <sheet name="invest" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="150">
   <si>
     <t>case_id</t>
   </si>
@@ -53,7 +54,7 @@
     <t>/member/register</t>
   </si>
   <si>
-    <t>{"mobile_phone":"${not_existed_tel}","pwd":"12345678"}</t>
+    <t>{"mobile_phone":"#not_existed_tel#","pwd":"12345678"}</t>
   </si>
   <si>
     <t>post</t>
@@ -62,102 +63,126 @@
     <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
   </si>
   <si>
-    <t>{"code":0,"msg":"OK"}</t>
+    <t>{"$..code":0,"$..msg":"OK"}</t>
   </si>
   <si>
     <t>密码为空</t>
   </si>
   <si>
-    <t>{"mobile_phone":"${not_existed_tel}","pwd":null}</t>
+    <t>{"mobile_phone":"#not_existed_tel#","pwd":null}</t>
+  </si>
+  <si>
+    <t>{"$..code":1,"$..msg":"密码为空"}</t>
+  </si>
+  <si>
+    <t>密码长度小于6</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#not_existed_tel#","pwd":"1234567"}</t>
+  </si>
+  <si>
+    <t>{"$..code":2,"$..msg":"密码格式为8到16位"}</t>
+  </si>
+  <si>
+    <t>密码长度大于18</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#not_existed_tel#","pwd":"1234561234561234561"}</t>
+  </si>
+  <si>
+    <t>手机号格式不对</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"110576824801","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>{"$..code":2,"$..msg":"无效的手机格式"}</t>
+  </si>
+  <si>
+    <t>手机号码已注册</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"13457682478","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>{"$..code":2,"$..msg":"账号已存在"}</t>
+  </si>
+  <si>
+    <t>密码8位</t>
+  </si>
+  <si>
+    <t>密码16位</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#not_existed_tel#","pwd":"1234567812345678"}</t>
+  </si>
+  <si>
+    <t>默认用户类型</t>
+  </si>
+  <si>
+    <t>用户类型1</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#not_existed_tel#","pwd":"12345678","type":1}</t>
+  </si>
+  <si>
+    <t>用户类型0</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#not_existed_tel#","pwd":"12345678","type":0}</t>
+  </si>
+  <si>
+    <t>注册用户名10位</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#not_existed_tel#","pwd":"12345678","type":1,"reg_name":"牛逼轰轰牛逼哄哄牛逼"}</t>
+  </si>
+  <si>
+    <t>默认注册名</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#not_existed_tel#","pwd":"1231HJK45678","type":0}</t>
+  </si>
+  <si>
+    <t>{"$..code":0,"$..msg":"OK","$..reg_name":"小柠檬"}</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>/member/login</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"13106191960","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"登录成功"}</t>
+  </si>
+  <si>
+    <t>登录失败，用户名不能为空</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":null,"pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"手机号码为空"}</t>
+  </si>
+  <si>
+    <t>登录失败，密码不能为空</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"13106191960","pwd":null}</t>
   </si>
   <si>
     <t>{"code":1,"msg":"密码为空"}</t>
   </si>
   <si>
-    <t>密码长度小于6</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"${not_existed_tel}","pwd":"1234567"}</t>
-  </si>
-  <si>
-    <t>{"code":2,"msg":"密码格式为8到16位"</t>
-  </si>
-  <si>
-    <t>密码长度大于18</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"${not_existed_tel}","pwd":"1234561234561234561"}</t>
-  </si>
-  <si>
-    <t>手机号格式不对</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"110576824801","pwd":"12345678"}</t>
-  </si>
-  <si>
-    <t>{"code":2,"msg":"无效的手机格式"}</t>
-  </si>
-  <si>
-    <t>手机号码已注册</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"13457682478","pwd":"12345678"}</t>
-  </si>
-  <si>
-    <t>{"code":2,"msg":"账号已存在"}</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>/member/login</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"13106191960","pwd":"12345678"}</t>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"登录成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>登录失败，用户名不能为空</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":null,"pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>{"code":1,"msg":"手机号码为空"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
-  </si>
-  <si>
-    <t>登录失败，密码不能为空</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"13106191960","pwd":null}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
-  </si>
-  <si>
     <t>登录失败，用户名错误</t>
   </si>
   <si>
-    <t>{"mobile_phone":"${not_existed_tel} + 1","pwd":"123456"}</t>
-  </si>
-  <si>
     <t>{"code":2,"msg":"无效手机格式"}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
-  </si>
-  <si>
     <t>登录失败，密码错误</t>
   </si>
   <si>
@@ -167,6 +192,27 @@
     <t>{"code":1001,"msg":"账号信息错误"}</t>
   </si>
   <si>
+    <t>管理员登录</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":#admin_user#,"pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>普通会员登录</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":#normal_user#,"pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>用户名未注册</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":#not_existed_tel#,"pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"未注册用户"}</t>
+  </si>
+  <si>
     <t>check_sql</t>
   </si>
   <si>
@@ -179,13 +225,7 @@
     <t>{"member_id":"10004457","amount":"1000"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"0","data":null,"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
-  </si>
-  <si>
-    <t>Fail</t>
+    <t>{"code":0,"msg":"充值成功"}</t>
   </si>
   <si>
     <t>参数错误：参数不能为空</t>
@@ -194,13 +234,16 @@
     <t>{"member_id":null,"amount":"1000"}</t>
   </si>
   <si>
+    <t>{"code":1,"msg":"id为空"}</t>
+  </si>
+  <si>
     <t>此ID号对应的会员不存在</t>
   </si>
   <si>
     <t>{"member_id":"100044570","amount":"1000"}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
+    <t>{"code":1007,"msg":"会员不存在"}</t>
   </si>
   <si>
     <t>ID号格式不正确</t>
@@ -209,7 +252,7 @@
     <t>{"member_id":"1111111a","amount":"1000"}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
+    <t>{"code":2,"msg":"会员id码格式不正确"}</t>
   </si>
   <si>
     <t>请输入金额</t>
@@ -218,7 +261,7 @@
     <t>{"member_id":"10004457","amount":null}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
+    <t>{"code":2,"msg":"金额为空"}</t>
   </si>
   <si>
     <t>输入的金额小数不能超过两位</t>
@@ -227,7 +270,7 @@
     <t>{"member_id":"10004457","amount":"1000.1111"}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20116","data":null,"msg":"输入的金额小数不能超过两位"}</t>
+    <t>{"code":2,"msg":"输入的金额小数不能超过两位"}</t>
   </si>
   <si>
     <t>请输入范围在0-50万之间的正数金额</t>
@@ -236,7 +279,7 @@
     <t>{"member_id":"10004457","amount":"1111111"}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20116","data":null,"msg":"请输入范围在0-50万之间的正数金额"}</t>
+    <t>{"code":2,"msg":"请输入范围在0-50万之间的正数金额"}</t>
   </si>
   <si>
     <t>请输入数字</t>
@@ -245,7 +288,187 @@
     <t>{"member_id":"10004457","amount":"asda"}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20116","data":null,"msg":"请输入数字"}</t>
+    <t>{"code":2,"msg":"请输入数字"}</t>
+  </si>
+  <si>
+    <t>充值0.01</t>
+  </si>
+  <si>
+    <t>{"member_id":"10004457","amount":"0.01"}</t>
+  </si>
+  <si>
+    <t>充值500000</t>
+  </si>
+  <si>
+    <t>{"member_id":"10004457","amount":"500000.00"}</t>
+  </si>
+  <si>
+    <t>充值9.0</t>
+  </si>
+  <si>
+    <t>{"member_id":"10004457","amount":"9.0"}</t>
+  </si>
+  <si>
+    <t>金额为空</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"金额为空"}</t>
+  </si>
+  <si>
+    <t>金额为0</t>
+  </si>
+  <si>
+    <t>{"member_id":"10004457","amount":"0"}</t>
+  </si>
+  <si>
+    <t>金额为-1</t>
+  </si>
+  <si>
+    <t>{"member_id":"10004457","amount":"-1"}</t>
+  </si>
+  <si>
+    <t>extractor</t>
+  </si>
+  <si>
+    <t>投资人登录</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#investor_phone#","pwd":"#investor_pwd#"}</t>
+  </si>
+  <si>
+    <t>{"investor_user_token":"$..token","investor_user_id":"$..id"}</t>
+  </si>
+  <si>
+    <t>新增项目，借款1月</t>
+  </si>
+  <si>
+    <t>/loan/add</t>
+  </si>
+  <si>
+    <t>{"member_id":"#investor_user_id#", "title":"新增项目成功","amount":"6000","loan_rate":"20.0","loan_term":"1","loan_date_type":"1","bidding_days":"1"}</t>
+  </si>
+  <si>
+    <t>{"X-Lemonban-Media-Type":"lemonban.v2","Authorization":"#investor_user_token#"}</t>
+  </si>
+  <si>
+    <t>新增项目，借款36月</t>
+  </si>
+  <si>
+    <t>{"member_id":"#investor_user_id#", "title":"新增项目成功","amount":"6000","loan_rate":"20.0","loan_term":"36","loan_date_type":"1","bidding_days":"1"}</t>
+  </si>
+  <si>
+    <t>新增项目，借款10天</t>
+  </si>
+  <si>
+    <t>{"member_id":"#investor_user_id#", "title":"新增项目成功","amount":"6000","loan_rate":"20.0","loan_term":"10","loan_date_type":"2","bidding_days":"1"}</t>
+  </si>
+  <si>
+    <t>新增项目，借款45天</t>
+  </si>
+  <si>
+    <t>{"member_id":"#investor_user_id#", "title":"新增项目成功","amount":"6000","loan_rate":"20.0","loan_term":"45","loan_date_type":"2","bidding_days":"1"}</t>
+  </si>
+  <si>
+    <t>借款人不存在</t>
+  </si>
+  <si>
+    <t>{"member_id":"25171231231231", "title":"新增项目成功","amount":"6000","loan_rate":"20.0","loan_term":"1","loan_date_type":"1","bidding_days":"1"}</t>
+  </si>
+  <si>
+    <t>{"$..code":2,"$..msg":"会员不存在"}</t>
+  </si>
+  <si>
+    <t>审核通过</t>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"approved_or_not":"true"}</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>审核拒绝</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"approved_or_not":"false"}</t>
+  </si>
+  <si>
+    <t>ID不存在</t>
+  </si>
+  <si>
+    <t>{"loan_id":"100000002","approved_or_not":"false"}</t>
+  </si>
+  <si>
+    <t>{"$..code":2,"$..msg":"ID不存在"}</t>
+  </si>
+  <si>
+    <t>权限不足</t>
+  </si>
+  <si>
+    <t>{"$..code":1007,"$..msg":"无权访问"}</t>
+  </si>
+  <si>
+    <t>审核状态错误</t>
+  </si>
+  <si>
+    <t>extrator</t>
+  </si>
+  <si>
+    <t>管理员登录成功</t>
+  </si>
+  <si>
+    <t>{"token":"$..token"}</t>
+  </si>
+  <si>
+    <t>项目新增成功</t>
+  </si>
+  <si>
+    <t>{"member_id":25171, "title":"新增项目成功","amount":6000,"loan_rate":20.0,"loan_term":1,"loan_date_type":1,"bidding_days":1}</t>
+  </si>
+  <si>
+    <t>{"loan_id":"$..loan_id"}</t>
+  </si>
+  <si>
+    <t>项目审批成功</t>
+  </si>
+  <si>
+    <t>用户ID为空</t>
+  </si>
+  <si>
+    <t>/member/invest</t>
+  </si>
+  <si>
+    <t>{"member_id":null,"loan_id":"1","amount":"400.00"}</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>{"$..code":1,"$..msg":"ID为空"}</t>
+  </si>
+  <si>
+    <t>未注册用户ID</t>
+  </si>
+  <si>
+    <t>{"member_id":999999999,"loan_id":"1","amount":"400.00"}</t>
+  </si>
+  <si>
+    <t>错误的用户ID</t>
+  </si>
+  <si>
+    <t>{"member_id":"123QWE","loan_id":"1","amount":"400.00"}</t>
+  </si>
+  <si>
+    <t>{"$..code":2,"$..msg":"格式错误"}</t>
+  </si>
+  <si>
+    <t>投资成功</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":"400.00"}</t>
   </si>
 </sst>
 </file>
@@ -253,10 +476,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -273,9 +496,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -287,33 +527,35 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -327,13 +569,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -346,10 +588,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -359,35 +609,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -401,13 +624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +642,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,13 +678,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,49 +702,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,42 +729,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +799,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -587,6 +825,17 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,21 +858,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -632,168 +866,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -801,75 +1024,90 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="强调文字颜色 4" xfId="4"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="输入" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
-    <cellStyle name="差" xfId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
-    <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="警告文本" xfId="18"/>
-    <cellStyle name="解释性文本" xfId="19"/>
-    <cellStyle name="标题 1" xfId="20"/>
-    <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
-    <cellStyle name="标题 3" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
-    <cellStyle name="输出" xfId="25"/>
-    <cellStyle name="计算" xfId="26"/>
-    <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
-    <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="链接单元格" xfId="30"/>
-    <cellStyle name="汇总" xfId="31"/>
-    <cellStyle name="好" xfId="32"/>
-    <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
-    <cellStyle name="强调文字颜色 1" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
-    <cellStyle name="强调文字颜色 3" xfId="40"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle name="强调文字颜色 5" xfId="43"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle name="强调文字颜色 6" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -919,71 +1157,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1195,20 +1433,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.99166666666667" customWidth="1"/>
     <col min="2" max="2" width="19.3" customWidth="1"/>
@@ -1216,37 +1453,37 @@
     <col min="4" max="4" width="65.125" customWidth="1"/>
     <col min="5" max="5" width="10.5583333333333" customWidth="1"/>
     <col min="6" max="6" width="41.75" customWidth="1"/>
-    <col min="7" max="7" width="35.75" customWidth="1"/>
+    <col min="7" max="7" width="42.25" customWidth="1"/>
     <col min="8" max="8" width="24.375" customWidth="1"/>
     <col min="9" max="9" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1254,10 +1491,10 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1269,20 +1506,20 @@
       <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1294,20 +1531,20 @@
       <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1319,20 +1556,20 @@
       <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1344,20 +1581,20 @@
       <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1369,20 +1606,20 @@
       <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1394,11 +1631,172 @@
       <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1408,15 +1806,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F6"/>
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.225" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
@@ -1429,31 +1827,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1462,13 +1860,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>12</v>
@@ -1476,28 +1874,24 @@
       <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="G2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
@@ -1505,28 +1899,24 @@
       <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="G3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
@@ -1534,28 +1924,24 @@
       <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="G4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
@@ -1563,28 +1949,24 @@
       <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="G5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>12</v>
@@ -1592,15 +1974,86 @@
       <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1610,12 +2063,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1623,44 +2076,44 @@
     <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="23.1083333333333" customWidth="1"/>
     <col min="3" max="3" width="19.1083333333333" customWidth="1"/>
-    <col min="4" max="4" width="70.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="46.125" customWidth="1"/>
     <col min="5" max="6" width="9.55833333333333" customWidth="1"/>
-    <col min="7" max="7" width="79.5" customWidth="1"/>
+    <col min="7" max="7" width="72.875" customWidth="1"/>
     <col min="8" max="8" width="56.8916666666667" customWidth="1"/>
     <col min="9" max="9" width="9.10833333333333" style="1" customWidth="1"/>
     <col min="10" max="10" width="83" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>49</v>
+      <c r="J1" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1668,13 +2121,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
@@ -1683,14 +2136,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10">
@@ -1698,13 +2147,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -1713,14 +2162,10 @@
         <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10">
@@ -1728,13 +2173,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
@@ -1743,14 +2188,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
@@ -1758,13 +2199,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
@@ -1773,14 +2214,10 @@
         <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
@@ -1788,13 +2225,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
@@ -1803,14 +2240,10 @@
         <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
@@ -1818,13 +2251,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>12</v>
@@ -1833,14 +2266,10 @@
         <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
@@ -1848,13 +2277,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>12</v>
@@ -1863,14 +2292,10 @@
         <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
@@ -1878,13 +2303,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
@@ -1893,15 +2318,155 @@
         <v>13</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1911,27 +2476,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="8.89166666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.775" customWidth="1"/>
-    <col min="4" max="4" width="98.225" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="56.225" customWidth="1"/>
-    <col min="8" max="8" width="8.89166666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="76.5" customWidth="1"/>
+    <col min="6" max="6" width="54.5" customWidth="1"/>
+    <col min="7" max="7" width="45.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1948,44 +2511,336 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="76.875" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="36.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="8.89166666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.775" customWidth="1"/>
     <col min="3" max="3" width="17.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="92.8916666666667" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="9.775" style="1" customWidth="1"/>
-    <col min="9" max="9" width="83" customWidth="1"/>
+    <col min="5" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="38.1083333333333" customWidth="1"/>
+    <col min="9" max="9" width="9.775" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2002,16 +2857,184 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>49</v>
+      <c r="B8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
